--- a/visual-search/exp1/production/pilot/compare_lines/conditions.xlsx
+++ b/visual-search/exp1/production/pilot/compare_lines/conditions.xlsx
@@ -20,17 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t xml:space="preserve">line_orientation</t>
   </si>
   <si>
-    <t xml:space="preserve">soa</t>
+    <t xml:space="preserve">width_position</t>
   </si>
   <si>
     <t xml:space="preserve">horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve">larger_left</t>
+  </si>
+  <si>
     <t xml:space="preserve">vertical</t>
   </si>
   <si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">diagonal2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">larger_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal</t>
   </si>
 </sst>
 </file>
@@ -141,10 +150,10 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,161 +167,121 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>0</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>0.25</v>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>0.25</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>0.25</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>0.5</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>0.5</v>
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
